--- a/work/householdchemicalsDM.xlsx
+++ b/work/householdchemicalsDM.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cat/Documents/PhD/work/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="-80" windowWidth="21600" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="7200" yWindow="460" windowWidth="21600" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -33,351 +38,350 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock up your poisons ideas flow in - several firms contacted. Cabinet is wanted but cannot be obtained, negitiating production sponsorship - Nicholas Products, maker of Aspro. John Bell and Croyden of Wigmore St designed 2 safety features similar to BSI specs. fited to any of the firms regualr medicine cabinets - sloping top and two catches with levers. Horton Reno of Middlesbrough special medicne cabinet - locking bolt when key is opened, cannot be closed without being locked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display advertiseing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.09.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Destroy these terrible weapons - chemical warfare Bush USA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.12.62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albright&amp;Wilson Micromet - avoid chaos in your kichen, keep your boiler and pipes scale-free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>household poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02.01.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CH Industrials - manifold a activities... chemicals and household products ran smoothly pushing profits up. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.12.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display advertising (full page)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02.08.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesco Bitrex first company to introduce substance called Bitrex. At least 10 000 children and their parents will be involved in the trauma of accidental poisoning. In nearly every case a young child will need medical attention having swallowed household chemicals. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domestic chemicals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.06.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We Sign with Czechs - Czechoslovakia will take from britain and the sterling area raw materials, machinery, chemicals, domestic materials and manufactured goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display advertiseing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-Rust  Locol Domestic Chemicals (amongst others) non toxic and non inflammable, safe to use and ideal for exhaust systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.03.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.05.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display advertiseing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-Rust  Locol Domestic Chemicals (amongst others) non toxic and non inflammable, safe to use and ideal for exhaust systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.10.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last statement before it becomes a wholly owned subsidiary of Eagle Star Insurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chevrus furniture in teak grained melamine finish - resists houshold chemicals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.11.77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.02.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.05.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.01.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.10.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.10.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.07.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SeptaPlan - septic tank blockages overflows and odours caused by over use of household chemicals or infrequent pumping. Specially cultured microbes. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">same page as a Deeweed ad, and a phostrogen phospray dilutor turns water can and hose into a way to feed and water garden. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuticura - everyday our hands come into contact with all sorts of household chemicals that can lead to or aggravate skin damage. Promotes healing of sore damaged skin. Wear cotton lined ruber gloves for houswork. Dry eczema, scaling, chafing, redness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.11.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.08.87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICI - propathene polypropylene - colour goes right through and is unaffected by boling water or household chemicals. Look for the ICI label - the sign of better houseware.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02.10.67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.11.67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display advertising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.12.67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.08.68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.06.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display advertising (full page)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legal &amp; General Stockbuilder - includes household goods and chemicals as segments (electrnics merchant banks, insurance, stores, overseas investment, property companies)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on a page of home/women's type articles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.11.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grangers Roofing - resists most household chemicals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.05.72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grovewood Securities - extracts of end of year statement.  Property investment, television, electrical &amp; household Goods, Chemicals &amp; Engieering Motor Racing Circuits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.05.73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thurs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.06.74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.10.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily Mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>household chemicals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.06.51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple display ads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kepkold - refrigeration without chemicals - model 'the household'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.11.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple display ads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Neodex - send for free book, oinment for skin, where skin has been affected by household chemcials. Painstaking research, common skin troubles, photographic proof. Dry, cracked, sore and tender skin for those increasing number of cases of "washing up" hand and "wash day" rashes. unsaturated fatty acides. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.08.67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display advertising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Poisons in the home. Agents of death in every family. Pres Pharmacueitical Soc 20-24.new law not sufficient to safeguard public against the perils of ignorance and carelessness. Carbolic acid, Spirtis of salt, oxalic acid, vitriol and nitric acid, cyanide of potassium, arsenic. Salts of lemon misleading name. Aims to keep control in hands of pharmacist - seller steeped in knowledge of the virulence of such household poisons is th esurest safetgaurd of the public weal.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>article</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock up your poisons ideas flow in - several firms contacted. Cabinet is wanted but cannot be obtained, negitiating production sponsorship - Nicholas Products, maker of Aspro. John Bell and Croyden of Wigmore St designed 2 safety features similar to BSI specs. fited to any of the firms regualr medicine cabinets - sloping top and two catches with levers. Horton Reno of Middlesbrough special medicne cabinet - locking bolt when key is opened, cannot be closed without being locked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display advertiseing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26.09.89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Destroy these terrible weapons - chemical warfare Bush USA </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31.12.62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Albright&amp;Wilson Micromet - avoid chaos in your kichen, keep your boiler and pipes scale-free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>household poison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02.01.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>article</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CH Industrials - manifold a activities... chemicals and household products ran smoothly pushing profits up. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16.12.88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>article</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display advertising (full page)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02.08.88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tues</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesco Bitrex first company to introduce substance called Bitrex. At least 10 000 children and their parents will be involved in the trauma of accidental poisoning. In nearly every case a young child will need medical attention having swallowed household chemicals. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>domestic chemicals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>article</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.06.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>We Sign with Czechs - Czechoslovakia will take from britain and the sterling area raw materials, machinery, chemicals, domestic materials and manufactured goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display advertiseing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D-Rust  Locol Domestic Chemicals (amongst others) non toxic and non inflammable, safe to use and ideal for exhaust systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31.03.79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.05.79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display advertiseing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D-Rust  Locol Domestic Chemicals (amongst others) non toxic and non inflammable, safe to use and ideal for exhaust systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.10.79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last statement before it becomes a wholly owned subsidiary of Eagle Star Insurance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chevrus furniture in teak grained melamine finish - resists houshold chemicals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.11.77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.02.78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06.05.78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27.01.79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04.10.80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.10.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.07.86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SeptaPlan - septic tank blockages overflows and odours caused by over use of household chemicals or infrequent pumping. Specially cultured microbes. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">same page as a Deeweed ad, and a phostrogen phospray dilutor turns water can and hose into a way to feed and water garden. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cuticura - everyday our hands come into contact with all sorts of household chemicals that can lead to or aggravate skin damage. Promotes healing of sore damaged skin. Wear cotton lined ruber gloves for houswork. Dry eczema, scaling, chafing, redness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.11.86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28.08.87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICI - propathene polypropylene - colour goes right through and is unaffected by boling water or household chemicals. Look for the ICI label - the sign of better houseware.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02.10.67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06.11.67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display advertising</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.12.67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16.08.68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.06.71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display advertising (full page)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legal &amp; General Stockbuilder - includes household goods and chemicals as segments (electrnics merchant banks, insurance, stores, overseas investment, property companies)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on a page of home/women's type articles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.11.71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grangers Roofing - resists most household chemicals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26.05.72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grovewood Securities - extracts of end of year statement.  Property investment, television, electrical &amp; household Goods, Chemicals &amp; Engieering Motor Racing Circuits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24.05.73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thurs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05.06.74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.10.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daily Mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>household chemicals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.06.51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiple display ads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kepkold - refrigeration without chemicals - model 'the household'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.11.58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiple display ads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Neodex - send for free book, oinment for skin, where skin has been affected by household chemcials. Painstaking research, common skin troubles, photographic proof. Dry, cracked, sore and tender skin for those increasing number of cases of "washing up" hand and "wash day" rashes. unsaturated fatty acides. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30.08.67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display advertising</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -414,7 +418,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -737,592 +746,592 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
         <v>80</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
         <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
       </c>
       <c r="C11">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>20</v>
       </c>
       <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14">
         <v>31</v>
       </c>
       <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>70</v>
       </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17">
         <v>19</v>
       </c>
       <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20">
         <v>30</v>
       </c>
       <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
         <v>46</v>
       </c>
-      <c r="F23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24">
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25">
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
         <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
       </c>
       <c r="C26">
         <v>41</v>
       </c>
       <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
         <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
       </c>
       <c r="C27">
         <v>21</v>
       </c>
       <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
         <v>20</v>
       </c>
-      <c r="E27" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" t="s">
-        <v>23</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
         <v>25</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>26</v>
       </c>
-      <c r="F34" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
       </c>
       <c r="C35">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
         <v>31</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>12</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
       </c>
       <c r="C43">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>11</v>
@@ -1331,18 +1340,12 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/work/householdchemicalsDM.xlsx
+++ b/work/householdchemicalsDM.xlsx
@@ -751,7 +751,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1347,5 +1347,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>